--- a/ATS.xlsx
+++ b/ATS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samat\Desktop\ATS_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E33AB-F76A-426D-9A8B-D9AEA36A9BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E4CC6-A487-415D-A7CC-1BAE94BC8514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{A8678AE1-5F3E-43D6-B425-C68936674C0B}"/>
+    <workbookView xWindow="6030" yWindow="4410" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{A8678AE1-5F3E-43D6-B425-C68936674C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Objectives" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="238">
   <si>
     <t>Zehuti</t>
   </si>
@@ -404,9 +404,6 @@
   </si>
   <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>First Line of Defense</t>
@@ -515,15 +512,9 @@
     <t>Cover All Needs</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Dispute</t>
   </si>
   <si>
-    <t>Set</t>
-  </si>
-  <si>
     <t>Infestation</t>
   </si>
   <si>
@@ -551,12 +542,6 @@
     <t>Choose another player and count the number of green location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>3VP</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -702,16 +687,88 @@
   </si>
   <si>
     <t>+1VP if placed adjacent to a Green location&lt;br&gt;&lt;span class='midSpacer'&gt;OR&lt;/span&gt;&lt;br&gt;+2VP  if placed adjacent to &lt;i&gt;Embassy Offices&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>cardMax</t>
+  </si>
+  <si>
+    <t>conflictType</t>
+  </si>
+  <si>
+    <t>cardNo</t>
+  </si>
+  <si>
+    <t>cardId</t>
+  </si>
+  <si>
+    <t>B0C_D_001</t>
+  </si>
+  <si>
+    <t>B0C_D_002</t>
+  </si>
+  <si>
+    <t>B0C_D_003</t>
+  </si>
+  <si>
+    <t>B0C_D_004</t>
+  </si>
+  <si>
+    <t>B0C_D_005</t>
+  </si>
+  <si>
+    <t>B0C_D_006</t>
+  </si>
+  <si>
+    <t>B0C_D_007</t>
+  </si>
+  <si>
+    <t>B0C_D_008</t>
+  </si>
+  <si>
+    <t>B0C_D_009</t>
+  </si>
+  <si>
+    <t>B0C_D_010</t>
+  </si>
+  <si>
+    <t>B0C_D_011</t>
+  </si>
+  <si>
+    <t>B0C_D_012</t>
+  </si>
+  <si>
+    <t>Choose another player and count the number of red location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount</t>
+  </si>
+  <si>
+    <t>Choose another player and count the number of yellow location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount</t>
+  </si>
+  <si>
+    <t>Choose another player and count the number of blue location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount</t>
+  </si>
+  <si>
+    <t>Choose another player and count the number of purple location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount</t>
+  </si>
+  <si>
+    <t>cardCost</t>
+  </si>
+  <si>
+    <t>Choose another player and count the number of Power Reactors in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1107,7 +1164,7 @@
         <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1115,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
         <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1132,10 +1189,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1149,16 +1206,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,10 +1223,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
         <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1183,16 +1240,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
         <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>133</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
         <v>134</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1217,13 +1274,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
         <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
       </c>
       <c r="E9" t="s">
         <v>70</v>
@@ -1234,10 +1291,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1251,10 +1308,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1268,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1282,94 +1339,94 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1525,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417666C2-B9A9-4F33-89A4-3CE4DD1A731D}">
   <dimension ref="A1:BI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,13 +1631,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -1613,7 +1670,7 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P2" t="s">
         <v>79</v>
@@ -1631,7 +1688,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
@@ -1667,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="V3" s="2" t="e">
         <f>SEARCH("+?VP",P3)-1</f>
@@ -1820,7 +1877,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -1856,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4:V20" si="5">SEARCH("+?VP",P4)-1</f>
@@ -2009,7 +2066,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
         <v>70</v>
@@ -2045,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="V5" s="2">
         <f>SEARCH("+?VP",P5)-1</f>
@@ -2198,7 +2255,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
@@ -2234,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="5"/>
@@ -2387,7 +2444,7 @@
         <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
         <v>70</v>
@@ -2423,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="V7" s="2" t="e">
         <f t="shared" si="5"/>
@@ -2576,7 +2633,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
         <v>70</v>
@@ -2612,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="V8" s="2" t="e">
         <f t="shared" si="5"/>
@@ -2765,7 +2822,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
         <v>70</v>
@@ -2801,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" si="5"/>
@@ -2954,7 +3011,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
@@ -2990,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="5"/>
@@ -3143,7 +3200,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
         <v>70</v>
@@ -3179,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" si="5"/>
@@ -3332,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
         <v>70</v>
@@ -3368,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="5"/>
@@ -3521,7 +3578,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
         <v>70</v>
@@ -3557,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" si="5"/>
@@ -3710,7 +3767,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
         <v>70</v>
@@ -3746,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" si="5"/>
@@ -3899,7 +3956,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -3935,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" si="5"/>
@@ -4088,7 +4145,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
         <v>70</v>
@@ -4124,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="5"/>
@@ -4277,7 +4334,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
         <v>70</v>
@@ -4313,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" si="5"/>
@@ -4466,7 +4523,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
         <v>70</v>
@@ -4502,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" si="5"/>
@@ -4655,7 +4712,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
         <v>70</v>
@@ -4691,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" si="5"/>
@@ -4844,7 +4901,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
         <v>70</v>
@@ -4880,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" si="5"/>
@@ -6343,7 +6400,7 @@
     </row>
     <row r="45" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="T45" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
@@ -6387,13 +6444,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>69</v>
@@ -6423,7 +6480,7 @@
         <v>77</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>79</v>
@@ -6440,7 +6497,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>70</v>
@@ -6473,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="U3" s="2">
         <f>SEARCH("+?VP",O3)-1</f>
@@ -6643,7 +6700,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>70</v>
@@ -6676,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" ref="U4:U20" si="6">SEARCH("+?VP",O4)-1</f>
@@ -6846,7 +6903,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>70</v>
@@ -6879,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="U5" s="2">
         <f>SEARCH("+?VP",O5)-1</f>
@@ -7049,7 +7106,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>70</v>
@@ -7082,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -7254,7 +7311,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>70</v>
@@ -7287,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="6"/>
@@ -7451,13 +7508,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>70</v>
@@ -7490,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="6"/>
@@ -7660,7 +7717,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>70</v>
@@ -7693,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="U9" s="2" t="e">
         <f t="shared" si="6"/>
@@ -7863,7 +7920,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -7896,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="U10" s="2" t="e">
         <f t="shared" si="6"/>
@@ -8066,7 +8123,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -8099,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="6"/>
@@ -8269,7 +8326,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -8302,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="6"/>
@@ -8472,7 +8529,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -8505,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U13" s="2" t="e">
         <f t="shared" si="6"/>
@@ -8675,7 +8732,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -8708,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="6"/>
@@ -8878,7 +8935,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>70</v>
@@ -8911,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="6"/>
@@ -9081,7 +9138,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>70</v>
@@ -9114,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="6"/>
@@ -9284,7 +9341,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -9317,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" si="6"/>
@@ -9487,7 +9544,7 @@
         <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>70</v>
@@ -9520,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U18" s="2" t="e">
         <f t="shared" si="6"/>
@@ -9690,7 +9747,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>70</v>
@@ -9723,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="U19" s="2">
         <f t="shared" si="6"/>
@@ -9893,7 +9950,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>70</v>
@@ -9926,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" si="6"/>
@@ -10090,13 +10147,13 @@
         <v>57</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>70</v>
@@ -10129,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="U21" s="2">
         <f t="shared" ref="U21:U24" si="38">SEARCH("+?VP",O21)-1</f>
@@ -10299,7 +10356,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>70</v>
@@ -10332,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U22" s="2">
         <f t="shared" si="38"/>
@@ -10502,7 +10559,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>70</v>
@@ -10535,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" si="38"/>
@@ -10705,7 +10762,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -10738,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U24" s="2" t="e">
         <f t="shared" si="38"/>
@@ -10908,7 +10965,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>70</v>
@@ -10941,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="U25" s="2">
         <f t="shared" ref="U25" si="59">SEARCH("+?VP",O25)-1</f>
@@ -11231,7 +11288,7 @@
         <v>cardDescription:"&lt;span class='pointModifier'&gt;+2&lt;/span&gt; if you have 3 or more &lt;i&gt;Power Reactors&lt;/i&gt; in the Station"</v>
       </c>
       <c r="T31" s="2" t="str">
-        <f t="shared" ref="T30:T33" si="87">"{"&amp;_xlfn.CONCAT(A31:O31)&amp;"}"</f>
+        <f t="shared" ref="T31:T33" si="87">"{"&amp;_xlfn.CONCAT(A31:O31)&amp;"}"</f>
         <v>{cardTitle:"Heavy Ion Cannon",cardImage:"Heavy_ion_cannon.png",cardColour:"R",type:"S",cardDeck:"Base",cardQuantity:2,cardEndGame:false,im_score:6,cardCreditCost:3,cardPowerCost:2,cardMaxAdditionalPoints:false,cardMaxPlayable:false,cardFunction:true,cardLocationRestriction:false,cardDescription:"&lt;span class='pointModifier'&gt;+2&lt;/span&gt; if you have 3 or more &lt;i&gt;Power Reactors&lt;/i&gt; in the Station"}</v>
       </c>
     </row>
@@ -12649,7 +12706,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="T56" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -12664,474 +12721,639 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B1202F-2FBD-422A-8341-A2B1AB12A103}">
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E40" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E43" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E44" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E45" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E47" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1048576" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1048576" s="2"/>
-      <c r="F1048576" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13148,12 +13370,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/ATS.xlsx
+++ b/ATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samat\Desktop\ATS_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E4CC6-A487-415D-A7CC-1BAE94BC8514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3A7EED-69A0-4023-B29B-0D5F198E4910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="4410" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{A8678AE1-5F3E-43D6-B425-C68936674C0B}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="16200" windowHeight="11835" activeTab="4" xr2:uid="{A8678AE1-5F3E-43D6-B425-C68936674C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Objectives" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="233">
   <si>
     <t>Zehuti</t>
   </si>
@@ -719,24 +719,6 @@
     <t>B0C_D_006</t>
   </si>
   <si>
-    <t>B0C_D_007</t>
-  </si>
-  <si>
-    <t>B0C_D_008</t>
-  </si>
-  <si>
-    <t>B0C_D_009</t>
-  </si>
-  <si>
-    <t>B0C_D_010</t>
-  </si>
-  <si>
-    <t>B0C_D_011</t>
-  </si>
-  <si>
-    <t>B0C_D_012</t>
-  </si>
-  <si>
     <t>Choose another player and count the number of red location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount</t>
   </si>
   <si>
@@ -753,6 +735,9 @@
   </si>
   <si>
     <t>Choose another player and count the number of Power Reactors in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount</t>
+  </si>
+  <si>
+    <t>[{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of green location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_001"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of red location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_002"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of yellow location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_003"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of blue location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_004"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of purple location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_005"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of Power Reactors in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_006"}]</t>
   </si>
 </sst>
 </file>
@@ -12721,10 +12706,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B1202F-2FBD-422A-8341-A2B1AB12A103}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12738,8 +12723,8 @@
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>218</v>
       </c>
@@ -12750,7 +12735,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>69</v>
@@ -12765,7 +12750,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12790,8 +12775,47 @@
       <c r="H3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L3" t="str">
+        <f>_xlfn.CONCAT(A$2,":",A3)</f>
+        <v>cardNo:1</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>_xlfn.CONCAT(B$2,":",CHAR(34),B3,CHAR(34))</f>
+        <v>cardTitle:"Dispute"</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:W8" si="0">_xlfn.CONCAT(C$2,":",CHAR(34),C3,CHAR(34))</f>
+        <v>cardDescription:"Choose another player and count the number of green location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount"</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>_xlfn.CONCAT(D$2,":",D3)</f>
+        <v>cardCost:1</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDeck:"Base"</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>conflictType:"Dispute"</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardMax:"3"</v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardId:"B0C_D_001"</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,M3:S3),"}")</f>
+        <v>{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of green location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_001"}</v>
+      </c>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12799,7 +12823,7 @@
         <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -12816,8 +12840,47 @@
       <c r="H4" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="str">
+        <f t="shared" ref="L4:L8" si="1">_xlfn.CONCAT(A$2,":",A4)</f>
+        <v>cardNo:2</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" ref="M4:M8" si="2">_xlfn.CONCAT(B$2,":",CHAR(34),B4,CHAR(34))</f>
+        <v>cardTitle:"Dispute"</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDescription:"Choose another player and count the number of red location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount"</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" ref="O4:O8" si="3">_xlfn.CONCAT(D$2,":",D4)</f>
+        <v>cardCost:1</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDeck:"Base"</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>conflictType:"Dispute"</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardMax:"3"</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardId:"B0C_D_002"</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="str">
+        <f t="shared" ref="V4:V8" si="4">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,M4:S4),"}")</f>
+        <v>{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of red location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_002"}</v>
+      </c>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12825,7 +12888,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -12842,8 +12905,47 @@
       <c r="H5" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>cardNo:3</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>cardTitle:"Dispute"</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDescription:"Choose another player and count the number of yellow location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount"</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>cardCost:1</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDeck:"Base"</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>conflictType:"Dispute"</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardMax:"3"</v>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardId:"B0C_D_003"</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of yellow location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_003"}</v>
+      </c>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12851,7 +12953,7 @@
         <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -12868,8 +12970,47 @@
       <c r="H6" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>cardNo:4</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>cardTitle:"Dispute"</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDescription:"Choose another player and count the number of blue location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount"</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>cardCost:1</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDeck:"Base"</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>conflictType:"Dispute"</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardMax:"3"</v>
+      </c>
+      <c r="S6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardId:"B0C_D_004"</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of blue location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_004"}</v>
+      </c>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12877,7 +13018,7 @@
         <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -12894,8 +13035,47 @@
       <c r="H7" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>cardNo:5</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>cardTitle:"Dispute"</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDescription:"Choose another player and count the number of purple location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount"</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>cardCost:1</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDeck:"Base"</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>conflictType:"Dispute"</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardMax:"3"</v>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardId:"B0C_D_005"</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of purple location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_005"}</v>
+      </c>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12903,7 +13083,7 @@
         <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -12920,124 +13100,120 @@
       <c r="H8" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>cardNo:6</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>cardTitle:"Dispute"</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDescription:"Choose another player and count the number of Power Reactors in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount"</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>cardCost:1</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardDeck:"Base"</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>conflictType:"Dispute"</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardMax:"3"</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cardId:"B0C_D_006"</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of Power Reactors in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_006"}</v>
+      </c>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
+      <c r="V11" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,V3:V8)</f>
+        <v>{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of green location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_001"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of red location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_002"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of yellow location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_003"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of blue location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_004"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of purple location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_005"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of Power Reactors in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_006"}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
+      <c r="V13" t="str">
+        <f>_xlfn.CONCAT("[",V11,"]")</f>
+        <v>[{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of green location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_001"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of red location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_002"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of yellow location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_003"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of blue location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_004"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of purple location in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_005"},{cardTitle:"Dispute",cardDescription:"Choose another player and count the number of Power Reactors in each of your Space Stations. If you have more, gain VP equal to the difference. They lose the same amount",cardCost:1,cardDeck:"Base",conflictType:"Dispute",cardMax:"3",cardId:"B0C_D_006"}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>148</v>
       </c>
@@ -13087,7 +13263,7 @@
         <v>148</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -13096,7 +13272,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -13105,7 +13281,7 @@
         <v>148</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -13114,7 +13290,7 @@
         <v>148</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -13123,7 +13299,7 @@
         <v>148</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -13132,7 +13308,7 @@
         <v>148</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -13195,7 +13371,7 @@
         <v>148</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -13204,7 +13380,7 @@
         <v>148</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -13213,7 +13389,7 @@
         <v>148</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -13222,7 +13398,7 @@
         <v>148</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -13231,7 +13407,7 @@
         <v>148</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -13240,7 +13416,7 @@
         <v>148</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -13297,60 +13473,6 @@
         <v>160</v>
       </c>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E48" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
